--- a/backend/src/shared/infra/typeorm/seeds/xlsx/seed_bairros_itarare.xlsx
+++ b/backend/src/shared/infra/typeorm/seeds/xlsx/seed_bairros_itarare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maia/Documents/Projetos/gcm/backend/src/shared/infra/typeorm/seeds/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31919E-1A71-4B4C-80DB-DE03F0BC2A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571ECE1F-B1DE-C44D-9200-0A2199575275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13860" xr2:uid="{E47AA242-32C8-4F40-AE81-9A7D90E6F8BF}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
